--- a/team_specific_matrix/San Diego St._A.xlsx
+++ b/team_specific_matrix/San Diego St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1850220264317181</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C2">
-        <v>0.5638766519823789</v>
+        <v>0.5614617940199336</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01762114537444934</v>
+        <v>0.01661129568106312</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.145374449339207</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0881057268722467</v>
+        <v>0.09634551495016612</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02290076335877863</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C3">
-        <v>0.02290076335877863</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04580152671755725</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7862595419847328</v>
+        <v>0.7816091954022989</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1221374045801527</v>
+        <v>0.1264367816091954</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.12</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.72</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.16</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07453416149068323</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1987577639751553</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006211180124223602</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1739130434782609</v>
+        <v>0.1712962962962963</v>
       </c>
       <c r="R6">
-        <v>0.07453416149068323</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S6">
-        <v>0.3850931677018634</v>
+        <v>0.3842592592592592</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.125</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01666666666666667</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06666666666666667</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.125</v>
+        <v>0.1446540880503145</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05</v>
+        <v>0.0440251572327044</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2083333333333333</v>
+        <v>0.1949685534591195</v>
       </c>
       <c r="R7">
-        <v>0.08333333333333333</v>
+        <v>0.06918238993710692</v>
       </c>
       <c r="S7">
-        <v>0.325</v>
+        <v>0.3459119496855346</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1081081081081081</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01544401544401544</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07722007722007722</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1235521235521236</v>
+        <v>0.1114285714285714</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0193050193050193</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1698841698841699</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="R8">
-        <v>0.1081081081081081</v>
+        <v>0.1114285714285714</v>
       </c>
       <c r="S8">
-        <v>0.3783783783783784</v>
+        <v>0.3771428571428572</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07936507936507936</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02380952380952381</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09523809523809523</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07936507936507936</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03968253968253968</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1746031746031746</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="R9">
-        <v>0.1031746031746032</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="S9">
-        <v>0.4047619047619048</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.134684147794994</v>
+        <v>0.1322751322751323</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02026221692491061</v>
+        <v>0.02204585537918871</v>
       </c>
       <c r="E10">
-        <v>0.001191895113230036</v>
+        <v>0.0008818342151675485</v>
       </c>
       <c r="F10">
-        <v>0.08224076281287247</v>
+        <v>0.08201058201058201</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1191895113230036</v>
+        <v>0.1119929453262787</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01787842669845054</v>
+        <v>0.02028218694885361</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2050059594755662</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="R10">
-        <v>0.06912991656734208</v>
+        <v>0.06701940035273368</v>
       </c>
       <c r="S10">
-        <v>0.3504171632896305</v>
+        <v>0.3492063492063492</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1293532338308458</v>
+        <v>0.1287878787878788</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1144278606965174</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="K11">
-        <v>0.2238805970149254</v>
+        <v>0.2159090909090909</v>
       </c>
       <c r="L11">
-        <v>0.5174129353233831</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01492537313432836</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7314814814814815</v>
+        <v>0.7310344827586207</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.212962962962963</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="L12">
-        <v>0.02777777777777778</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02777777777777778</v>
+        <v>0.02758620689655172</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7407407407407407</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2592592592592592</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02352941176470588</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1352941176470588</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="I15">
-        <v>0.04117647058823529</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="J15">
-        <v>0.3823529411764706</v>
+        <v>0.3813559322033898</v>
       </c>
       <c r="K15">
-        <v>0.08235294117647059</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01764705882352941</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08235294117647059</v>
+        <v>0.08050847457627118</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2352941176470588</v>
+        <v>0.2584745762711864</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01342281879194631</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1208053691275168</v>
+        <v>0.116751269035533</v>
       </c>
       <c r="I16">
-        <v>0.06711409395973154</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="J16">
-        <v>0.4765100671140939</v>
+        <v>0.4619289340101523</v>
       </c>
       <c r="K16">
-        <v>0.0738255033557047</v>
+        <v>0.1015228426395939</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02684563758389262</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0738255033557047</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1476510067114094</v>
+        <v>0.1472081218274112</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02068965517241379</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1551724137931035</v>
+        <v>0.1582914572864322</v>
       </c>
       <c r="I17">
-        <v>0.09310344827586207</v>
+        <v>0.08793969849246232</v>
       </c>
       <c r="J17">
-        <v>0.4137931034482759</v>
+        <v>0.407035175879397</v>
       </c>
       <c r="K17">
-        <v>0.1275862068965517</v>
+        <v>0.1180904522613065</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02758620689655172</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="N17">
-        <v>0.003448275862068965</v>
+        <v>0.002512562814070352</v>
       </c>
       <c r="O17">
-        <v>0.07931034482758621</v>
+        <v>0.08040201005025126</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07931034482758621</v>
+        <v>0.1055276381909548</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02521008403361345</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.226890756302521</v>
+        <v>0.2165605095541401</v>
       </c>
       <c r="I18">
-        <v>0.05882352941176471</v>
+        <v>0.05095541401273886</v>
       </c>
       <c r="J18">
-        <v>0.3949579831932773</v>
+        <v>0.4585987261146497</v>
       </c>
       <c r="K18">
-        <v>0.07563025210084033</v>
+        <v>0.06369426751592357</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01680672268907563</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06722689075630252</v>
+        <v>0.07643312101910828</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.134453781512605</v>
+        <v>0.1019108280254777</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01303780964797914</v>
+        <v>0.01528175740210124</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1890482398956975</v>
+        <v>0.1900668576886342</v>
       </c>
       <c r="I19">
-        <v>0.09647979139504563</v>
+        <v>0.09264565425023878</v>
       </c>
       <c r="J19">
-        <v>0.3833116036505867</v>
+        <v>0.3868194842406877</v>
       </c>
       <c r="K19">
-        <v>0.1069100391134289</v>
+        <v>0.1041069723018147</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01303780964797914</v>
+        <v>0.01432664756446991</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08083441981747067</v>
+        <v>0.0830945558739255</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1173402868318123</v>
+        <v>0.113658070678128</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/San Diego St._A.xlsx
+++ b/team_specific_matrix/San Diego St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.186046511627907</v>
+        <v>0.1829652996845426</v>
       </c>
       <c r="C2">
-        <v>0.5614617940199336</v>
+        <v>0.5678233438485805</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01661129568106312</v>
+        <v>0.01577287066246057</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1395348837209302</v>
+        <v>0.138801261829653</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09634551495016612</v>
+        <v>0.0946372239747634</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01724137931034483</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="C3">
-        <v>0.02873563218390805</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04597701149425287</v>
+        <v>0.04324324324324325</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7816091954022989</v>
+        <v>0.772972972972973</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1264367816091954</v>
+        <v>0.1405405405405405</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1538461538461539</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6153846153846154</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2307692307692308</v>
+        <v>0.2093023255813954</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08333333333333333</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07407407407407407</v>
+        <v>0.06926406926406926</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2083333333333333</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009259259259259259</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1712962962962963</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="R6">
-        <v>0.06944444444444445</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="S6">
-        <v>0.3842592592592592</v>
+        <v>0.3896103896103896</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1257861635220126</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05660377358490566</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1446540880503145</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0440251572327044</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1949685534591195</v>
+        <v>0.191358024691358</v>
       </c>
       <c r="R7">
-        <v>0.06918238993710692</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S7">
-        <v>0.3459119496855346</v>
+        <v>0.3395061728395062</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1085714285714286</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02285714285714286</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06857142857142857</v>
+        <v>0.07180851063829788</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1114285714285714</v>
+        <v>0.1223404255319149</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02285714285714286</v>
+        <v>0.02393617021276596</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1771428571428571</v>
+        <v>0.1781914893617021</v>
       </c>
       <c r="R8">
-        <v>0.1114285714285714</v>
+        <v>0.1037234042553191</v>
       </c>
       <c r="S8">
-        <v>0.3771428571428572</v>
+        <v>0.3670212765957447</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07878787878787878</v>
+        <v>0.08379888268156424</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02424242424242424</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.103030303030303</v>
+        <v>0.1005586592178771</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07878787878787878</v>
+        <v>0.08379888268156424</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04242424242424243</v>
+        <v>0.0446927374301676</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1636363636363636</v>
+        <v>0.1620111731843575</v>
       </c>
       <c r="R9">
-        <v>0.1090909090909091</v>
+        <v>0.1005586592178771</v>
       </c>
       <c r="S9">
-        <v>0.4</v>
+        <v>0.4022346368715084</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1322751322751323</v>
+        <v>0.1282258064516129</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02204585537918871</v>
+        <v>0.0217741935483871</v>
       </c>
       <c r="E10">
-        <v>0.0008818342151675485</v>
+        <v>0.0008064516129032258</v>
       </c>
       <c r="F10">
-        <v>0.08201058201058201</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1119929453262787</v>
+        <v>0.1145161290322581</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02028218694885361</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2142857142857143</v>
+        <v>0.2169354838709678</v>
       </c>
       <c r="R10">
-        <v>0.06701940035273368</v>
+        <v>0.07096774193548387</v>
       </c>
       <c r="S10">
-        <v>0.3492063492063492</v>
+        <v>0.3459677419354839</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1287878787878788</v>
+        <v>0.1286764705882353</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1136363636363636</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="K11">
-        <v>0.2159090909090909</v>
+        <v>0.2132352941176471</v>
       </c>
       <c r="L11">
-        <v>0.5303030303030303</v>
+        <v>0.5367647058823529</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01136363636363636</v>
+        <v>0.01102941176470588</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7310344827586207</v>
+        <v>0.7152317880794702</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2068965517241379</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="K12">
-        <v>0.006896551724137931</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="L12">
-        <v>0.02758620689655172</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02758620689655172</v>
+        <v>0.02649006622516556</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0211864406779661</v>
+        <v>0.02</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1271186440677966</v>
+        <v>0.128</v>
       </c>
       <c r="I15">
-        <v>0.05084745762711865</v>
+        <v>0.048</v>
       </c>
       <c r="J15">
-        <v>0.3813559322033898</v>
+        <v>0.38</v>
       </c>
       <c r="K15">
-        <v>0.06779661016949153</v>
+        <v>0.068</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01271186440677966</v>
+        <v>0.012</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08050847457627118</v>
+        <v>0.076</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2584745762711864</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01522842639593909</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.116751269035533</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="I16">
-        <v>0.06091370558375635</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J16">
-        <v>0.4619289340101523</v>
+        <v>0.4619047619047619</v>
       </c>
       <c r="K16">
-        <v>0.1015228426395939</v>
+        <v>0.1</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02538071065989848</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07106598984771574</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1472081218274112</v>
+        <v>0.1523809523809524</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02010050251256281</v>
+        <v>0.0207852193995381</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1582914572864322</v>
+        <v>0.1639722863741339</v>
       </c>
       <c r="I17">
-        <v>0.08793969849246232</v>
+        <v>0.09006928406466513</v>
       </c>
       <c r="J17">
-        <v>0.407035175879397</v>
+        <v>0.4087759815242494</v>
       </c>
       <c r="K17">
-        <v>0.1180904522613065</v>
+        <v>0.115473441108545</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02010050251256281</v>
+        <v>0.01847575057736721</v>
       </c>
       <c r="N17">
-        <v>0.002512562814070352</v>
+        <v>0.002309468822170901</v>
       </c>
       <c r="O17">
-        <v>0.08040201005025126</v>
+        <v>0.07852193995381063</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1055276381909548</v>
+        <v>0.1016166281755196</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01910828025477707</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2165605095541401</v>
+        <v>0.2071005917159763</v>
       </c>
       <c r="I18">
-        <v>0.05095541401273886</v>
+        <v>0.05325443786982249</v>
       </c>
       <c r="J18">
-        <v>0.4585987261146497</v>
+        <v>0.4792899408284024</v>
       </c>
       <c r="K18">
-        <v>0.06369426751592357</v>
+        <v>0.05917159763313609</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01273885350318471</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07643312101910828</v>
+        <v>0.07100591715976332</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1019108280254777</v>
+        <v>0.1005917159763314</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01528175740210124</v>
+        <v>0.01422222222222222</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1900668576886342</v>
+        <v>0.1884444444444444</v>
       </c>
       <c r="I19">
-        <v>0.09264565425023878</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="J19">
-        <v>0.3868194842406877</v>
+        <v>0.3946666666666667</v>
       </c>
       <c r="K19">
-        <v>0.1041069723018147</v>
+        <v>0.09866666666666667</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01432664756446991</v>
+        <v>0.01422222222222222</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0830945558739255</v>
+        <v>0.08177777777777778</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.113658070678128</v>
+        <v>0.1146666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/San Diego St._A.xlsx
+++ b/team_specific_matrix/San Diego St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1829652996845426</v>
+        <v>0.1850746268656716</v>
       </c>
       <c r="C2">
-        <v>0.5678233438485805</v>
+        <v>0.5611940298507463</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01577287066246057</v>
+        <v>0.0208955223880597</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.138801261829653</v>
+        <v>0.1373134328358209</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0946372239747634</v>
+        <v>0.09552238805970149</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01621621621621622</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="C3">
-        <v>0.02702702702702703</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04324324324324325</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.772972972972973</v>
+        <v>0.7731958762886598</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1405405405405405</v>
+        <v>0.1391752577319588</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1395348837209302</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6511627906976745</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2093023255813954</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08225108225108226</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06926406926406926</v>
+        <v>0.07630522088353414</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2121212121212121</v>
+        <v>0.2008032128514056</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01298701298701299</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1688311688311688</v>
+        <v>0.1646586345381526</v>
       </c>
       <c r="R6">
-        <v>0.06493506493506493</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="S6">
-        <v>0.3896103896103896</v>
+        <v>0.3895582329317269</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1234567901234568</v>
+        <v>0.1213872832369942</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01851851851851852</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05555555555555555</v>
+        <v>0.05780346820809248</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.154320987654321</v>
+        <v>0.161849710982659</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04320987654320987</v>
+        <v>0.04624277456647399</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.191358024691358</v>
+        <v>0.1849710982658959</v>
       </c>
       <c r="R7">
-        <v>0.07407407407407407</v>
+        <v>0.06936416184971098</v>
       </c>
       <c r="S7">
-        <v>0.3395061728395062</v>
+        <v>0.3410404624277457</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1063829787234043</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02659574468085106</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07180851063829788</v>
+        <v>0.07213930348258707</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1223404255319149</v>
+        <v>0.1268656716417911</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02393617021276596</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1781914893617021</v>
+        <v>0.1691542288557214</v>
       </c>
       <c r="R8">
-        <v>0.1037234042553191</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="S8">
-        <v>0.3670212765957447</v>
+        <v>0.3706467661691542</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08379888268156424</v>
+        <v>0.08121827411167512</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0223463687150838</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1005586592178771</v>
+        <v>0.1065989847715736</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08379888268156424</v>
+        <v>0.1065989847715736</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0446927374301676</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1620111731843575</v>
+        <v>0.1573604060913706</v>
       </c>
       <c r="R9">
-        <v>0.1005586592178771</v>
+        <v>0.09137055837563451</v>
       </c>
       <c r="S9">
-        <v>0.4022346368715084</v>
+        <v>0.3959390862944163</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1282258064516129</v>
+        <v>0.1230425055928412</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0217741935483871</v>
+        <v>0.02162565249813572</v>
       </c>
       <c r="E10">
-        <v>0.0008064516129032258</v>
+        <v>0.0007457121551081282</v>
       </c>
       <c r="F10">
-        <v>0.08064516129032258</v>
+        <v>0.07979120059656973</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1145161290322581</v>
+        <v>0.116331096196868</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02016129032258064</v>
+        <v>0.01864280387770321</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2169354838709678</v>
+        <v>0.2155108128262491</v>
       </c>
       <c r="R10">
-        <v>0.07096774193548387</v>
+        <v>0.07606263982102908</v>
       </c>
       <c r="S10">
-        <v>0.3459677419354839</v>
+        <v>0.3482475764354959</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1286764705882353</v>
+        <v>0.1346801346801347</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1102941176470588</v>
+        <v>0.1144781144781145</v>
       </c>
       <c r="K11">
-        <v>0.2132352941176471</v>
+        <v>0.2154882154882155</v>
       </c>
       <c r="L11">
-        <v>0.5367647058823529</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01102941176470588</v>
+        <v>0.0101010101010101</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7152317880794702</v>
+        <v>0.7098765432098766</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2251655629139073</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="K12">
-        <v>0.006622516556291391</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="L12">
-        <v>0.02649006622516556</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02649006622516556</v>
+        <v>0.02469135802469136</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7575757575757576</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2424242424242424</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02</v>
+        <v>0.01838235294117647</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.128</v>
+        <v>0.125</v>
       </c>
       <c r="I15">
-        <v>0.048</v>
+        <v>0.05147058823529412</v>
       </c>
       <c r="J15">
-        <v>0.38</v>
+        <v>0.3860294117647059</v>
       </c>
       <c r="K15">
-        <v>0.068</v>
+        <v>0.06985294117647059</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.012</v>
+        <v>0.01102941176470588</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.076</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.268</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01428571428571429</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.119047619047619</v>
+        <v>0.1210762331838565</v>
       </c>
       <c r="I16">
-        <v>0.05714285714285714</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="J16">
-        <v>0.4619047619047619</v>
+        <v>0.4618834080717489</v>
       </c>
       <c r="K16">
-        <v>0.1</v>
+        <v>0.09417040358744394</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02380952380952381</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07142857142857142</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1523809523809524</v>
+        <v>0.1524663677130045</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0207852193995381</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1639722863741339</v>
+        <v>0.1699346405228758</v>
       </c>
       <c r="I17">
-        <v>0.09006928406466513</v>
+        <v>0.08932461873638345</v>
       </c>
       <c r="J17">
-        <v>0.4087759815242494</v>
+        <v>0.4030501089324618</v>
       </c>
       <c r="K17">
-        <v>0.115473441108545</v>
+        <v>0.1154684095860566</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01847575057736721</v>
+        <v>0.01742919389978214</v>
       </c>
       <c r="N17">
-        <v>0.002309468822170901</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="O17">
-        <v>0.07852193995381063</v>
+        <v>0.08061002178649238</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1016166281755196</v>
+        <v>0.10239651416122</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01775147928994083</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2071005917159763</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="I18">
-        <v>0.05325443786982249</v>
+        <v>0.05913978494623656</v>
       </c>
       <c r="J18">
-        <v>0.4792899408284024</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="K18">
-        <v>0.05917159763313609</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01183431952662722</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="O18">
-        <v>0.07100591715976332</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1005917159763314</v>
+        <v>0.09677419354838709</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01422222222222222</v>
+        <v>0.01312551271534044</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1884444444444444</v>
+        <v>0.1862182116488925</v>
       </c>
       <c r="I19">
-        <v>0.09333333333333334</v>
+        <v>0.09515996718621821</v>
       </c>
       <c r="J19">
-        <v>0.3946666666666667</v>
+        <v>0.3904840032813782</v>
       </c>
       <c r="K19">
-        <v>0.09866666666666667</v>
+        <v>0.0992616899097621</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01422222222222222</v>
+        <v>0.014766201804758</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08177777777777778</v>
+        <v>0.08285479901558655</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1146666666666667</v>
+        <v>0.118129614438064</v>
       </c>
     </row>
   </sheetData>
